--- a/sante/csv_def/3_MedSpeConsultTxDep.xlsx
+++ b/sante/csv_def/3_MedSpeConsultTxDep.xlsx
@@ -1,16 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ameli\Desktop\cours3A\semestre2\dataviz\dataviz\sante\csv_def\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CCAEFB38-A9FF-4B62-9832-FB6E1840FD6B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$C$1</definedName>
+  </definedNames>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -163,8 +172,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,6 +200,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -206,33 +225,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="5" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -245,7 +275,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30369729564659903"/>
+          <c:y val="5.2722199198784361E-2"/>
+          <c:w val="0.54826715711298935"/>
+          <c:h val="0.91209946125155406"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -263,136 +303,136 @@
               <c:strCache>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
+                  <c:v>Psychiatrie générale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pédiatrie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ophtalmologie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gynécologie obstétrique</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dermatologie et vénérologie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pathologie cardiovasculaire</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Anesthésiologie  Réanimation chirurgicale</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Chirurgie orthopédique et traumatologie</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gynécologie médicale</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Rhumatologie</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Gastroentérologie et hépatologie</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Otorhino laryngologie</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Endocrinologie</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Chirurgie générale</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Néphrologie</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Chirurgie urologique</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Pneumologie</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Neurologie</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Médecine physique et de réanimation</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Médecine interne</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Gynécologie obstétricale</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Stomatologie</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Chirurgie viscérale et digestive</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Oncologie médicale</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Oncologie radiothérapique</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Chirurgie plastique reconstructrice et esthétique</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Neurochirurgie</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Chirurgie maxillofaciale et stomatologie</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Chirurgie vasculaire</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Neuropsychiatrie</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Radiodiagnostic et imagerie médicale</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Psychiatrie de l\enfant et de l\"adolescent"</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Radiothérapie</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Gériatrie</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Chirurgie thoracique et cardiovasculaire</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Hémathologie</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Chirurgie infantile</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Chirurgie maxillofaciale</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Obstétrique</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Médecine nucléaire</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Génétique médicale</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Réanimation médicale</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Médecin biologiste</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>Chirurgie orale médicale</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Néphrologie</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oncologie radiothérapique</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Pathologie cardiovasculaire</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Radiodiagnostic et imagerie médicale</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Médecine nucléaire</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Réanimation médicale</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Pneumologie</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Gériatrie</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Radiothérapie</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Neurologie</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Gastroentérologie et hépatologie</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Oncologie médicale</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Neuropsychiatrie</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Stomatologie</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Hémathologie</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Médecin biologiste</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Chirurgie thoracique et cardiovasculaire</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Psychiatrie générale</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Anesthésiologie  Réanimation chirurgicale</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Pédiatrie</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Dermatologie et vénérologie</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Chirurgie maxillofaciale et stomatologie</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Rhumatologie</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Otorhino laryngologie</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Chirurgie maxillofaciale</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Chirurgie vasculaire</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Endocrinologie</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Psychiatrie de l\enfant et de l\"adolescent"</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Chirurgie viscérale et digestive</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Chirurgie générale</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Chirurgie infantile</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Obstétrique</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Gynécologie médicale</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Médecine physique et de réanimation</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Médecine interne</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Chirurgie urologique</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Chirurgie orthopédique et traumatologie</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Chirurgie plastique reconstructrice et esthétique</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Ophtalmologie</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Gynécologie obstétricale</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Neurochirurgie</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Gynécologie obstétrique</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Génétique médicale</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -401,143 +441,148 @@
             <c:numRef>
               <c:f>Feuil1!$B$2:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>2530.0</c:v>
+                  <c:v>936402000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.219972166E10</c:v>
+                  <c:v>433322000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.343513488E9</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>1.66743E11</c:v>
+                  <c:v>371649000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>351303000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.141014636E9</c:v>
+                  <c:v>315588000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.764804E6</c:v>
+                  <c:v>166743000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.183725E6</c:v>
+                  <c:v>152627000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0713839102E10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.012547E8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.2785906E8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0442561272E10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.9798906396E10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.548261837E9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.223789028E9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.041246272E9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.295193E8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.073158E6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.36959039E8</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>9.36402E11</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>1.52627E11</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>4.33322E11</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>3.15588E11</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.48945712E9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.4637796949E10</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.7674930651E10</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.3617065E8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.423298595E9</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.9283006785E10</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.99722356E8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.548049892E9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.4567816249E10</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.85612015E8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.04344828E8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.8977511784E10</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.210111598E10</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.731447828E9</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.2087868277E10</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.06681E11</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.798511741E9</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.71649E11</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7.844814543E9</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.01318221E9</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.51303E11</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.414462E6</c:v>
+                  <c:v>106681000000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>88977511784</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>74637796949</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>69798906396</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>67674930651</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>49283006785</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>24567816249</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>22199721660</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>22087868277</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>20713839102</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>20442561272</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>12101115980</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>8731447828</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>7844814543</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>7041246272</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>5548049892</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>4548261837</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>3343513488</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>2798511741</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>2013182210</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>1489457120</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>1423298595</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>1223789028</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>1141014636</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>899722356</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>827859060</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>801254700</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>336959039</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>329519300</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>285612015</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>136170650</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>104344828</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>9764804</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>5414462</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>4183725</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>3073158</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>2530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5BA-4F8A-9D7A-2911B2D70898}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -568,136 +613,136 @@
               <c:strCache>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
+                  <c:v>Psychiatrie générale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pédiatrie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ophtalmologie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gynécologie obstétrique</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dermatologie et vénérologie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pathologie cardiovasculaire</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Anesthésiologie  Réanimation chirurgicale</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Chirurgie orthopédique et traumatologie</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gynécologie médicale</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Rhumatologie</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Gastroentérologie et hépatologie</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Otorhino laryngologie</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Endocrinologie</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Chirurgie générale</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Néphrologie</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Chirurgie urologique</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Pneumologie</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Neurologie</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Médecine physique et de réanimation</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Médecine interne</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Gynécologie obstétricale</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Stomatologie</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Chirurgie viscérale et digestive</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Oncologie médicale</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Oncologie radiothérapique</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Chirurgie plastique reconstructrice et esthétique</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Neurochirurgie</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Chirurgie maxillofaciale et stomatologie</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Chirurgie vasculaire</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Neuropsychiatrie</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Radiodiagnostic et imagerie médicale</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Psychiatrie de l\enfant et de l\"adolescent"</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Radiothérapie</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Gériatrie</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Chirurgie thoracique et cardiovasculaire</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Hémathologie</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Chirurgie infantile</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Chirurgie maxillofaciale</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Obstétrique</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Médecine nucléaire</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Génétique médicale</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Réanimation médicale</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Médecin biologiste</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>Chirurgie orale médicale</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Néphrologie</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oncologie radiothérapique</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Pathologie cardiovasculaire</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Radiodiagnostic et imagerie médicale</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Médecine nucléaire</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Réanimation médicale</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Pneumologie</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Gériatrie</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Radiothérapie</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Neurologie</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Gastroentérologie et hépatologie</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Oncologie médicale</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Neuropsychiatrie</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Stomatologie</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Hémathologie</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Médecin biologiste</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Chirurgie thoracique et cardiovasculaire</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Psychiatrie générale</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Anesthésiologie  Réanimation chirurgicale</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Pédiatrie</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Dermatologie et vénérologie</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Chirurgie maxillofaciale et stomatologie</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Rhumatologie</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Otorhino laryngologie</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Chirurgie maxillofaciale</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Chirurgie vasculaire</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Endocrinologie</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Psychiatrie de l\enfant et de l\"adolescent"</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Chirurgie viscérale et digestive</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Chirurgie générale</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Chirurgie infantile</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Obstétrique</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Gynécologie médicale</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Médecine physique et de réanimation</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Médecine interne</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Chirurgie urologique</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Chirurgie orthopédique et traumatologie</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Chirurgie plastique reconstructrice et esthétique</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Ophtalmologie</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Gynécologie obstétricale</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Neurochirurgie</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Gynécologie obstétrique</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Génétique médicale</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -709,140 +754,145 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>21.24559661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.178717736</c:v>
+                  <c:v>22.70444359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.191081737</c:v>
+                  <c:v>53.657420500000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.806272385</c:v>
+                  <c:v>63.508048889999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.824488268</c:v>
+                  <c:v>25.307321600000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.167711342</c:v>
+                  <c:v>7.8062723849999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.193818067</c:v>
+                  <c:v>21.888855830000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.502246497</c:v>
+                  <c:v>48.273893659999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.35967214</c:v>
+                  <c:v>38.363128699999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.10593322</c:v>
+                  <c:v>29.03724549</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>15.460213420000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.637995759999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.42531159</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.38810599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1787177360000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.526562339999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5022464969999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>14.19910863</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.46021342</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.9785777</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18.16840777</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20.06234063</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
+                  <c:v>39.996018790000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.686838600000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55.293370240000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.062340630000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34.594315360000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.978577699999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.1910817370000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53.267111579999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62.359166590000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.780981560000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31.170234229999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.168407770000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.8244882679999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.069110590000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.105933220000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.359672140000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.10556248</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>20.51840181</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>20.63474882</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21.10556248</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21.24559661</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21.88885583</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22.70444359</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>25.3073216</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>27.78098156</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>29.03724549</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>30.63799576</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="36">
+                  <c:v>37.749558980000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>31.08578554</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>31.17023423</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>31.42531159</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>32.06911059</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>34.59431536</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>37.38810599</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>37.74955898</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>37.95836295</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38.3631287</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>39.99601879</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>41.6868386</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45.52656234</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>48.27389366</c:v>
-                </c:pt>
                 <c:pt idx="38">
-                  <c:v>53.26711158</c:v>
+                  <c:v>37.958362950000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>53.6574205</c:v>
+                  <c:v>9.1677113420000005</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>55.29337024</c:v>
+                  <c:v>68.941888759999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>62.35916659</c:v>
+                  <c:v>9.1938180670000005</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>63.50804889</c:v>
+                  <c:v>20.634748819999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>68.94188876</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E5BA-4F8A-9D7A-2911B2D70898}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -863,6 +913,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -878,13 +929,13 @@
         <c:axId val="2076643384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0E12"/>
-          <c:min val="-1.0E12"/>
+          <c:max val="1000000000000"/>
+          <c:min val="-1000000000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -896,8 +947,8 @@
         <c:axId val="2076640504"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
-          <c:max val="100.0"/>
-          <c:min val="-100.0"/>
+          <c:max val="100"/>
+          <c:min val="-100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -916,6 +967,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -929,7 +981,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -938,16 +989,16 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1032,53 +1083,58 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>2.219972166E10</c:v>
+                  <c:v>22199721660</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.66743E11</c:v>
+                  <c:v>166743000000</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>6.9798906396E10</c:v>
+                  <c:v>69798906396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.36402E11</c:v>
+                  <c:v>936402000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.52627E11</c:v>
+                  <c:v>152627000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.33322E11</c:v>
+                  <c:v>433322000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.15588E11</c:v>
+                  <c:v>315588000000</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>7.4637796949E10</c:v>
+                  <c:v>74637796949</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>6.7674930651E10</c:v>
+                  <c:v>67674930651</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>4.9283006785E10</c:v>
+                  <c:v>49283006785</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>2.4567816249E10</c:v>
+                  <c:v>24567816249</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>8.8977511784E10</c:v>
+                  <c:v>88977511784</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.06681E11</c:v>
+                  <c:v>106681000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.71649E11</c:v>
+                  <c:v>371649000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.51303E11</c:v>
+                  <c:v>351303000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EFF-4270-A866-7C31CC183C97}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1163,31 +1219,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.178717736</c:v>
+                  <c:v>1.1787177360000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.806272385</c:v>
+                  <c:v>7.8062723849999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.46021342</c:v>
+                  <c:v>15.460213420000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>21.24559661</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.88885583</c:v>
+                  <c:v>21.888855830000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>22.70444359</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.3073216</c:v>
+                  <c:v>25.307321600000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>29.03724549</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.63799576</c:v>
+                  <c:v>30.637995759999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>31.42531159</c:v>
@@ -1196,20 +1252,25 @@
                   <c:v>37.38810599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.3631287</c:v>
+                  <c:v>38.363128699999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48.27389366</c:v>
+                  <c:v>48.273893659999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53.6574205</c:v>
+                  <c:v>53.657420500000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63.50804889</c:v>
+                  <c:v>63.508048889999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1EFF-4270-A866-7C31CC183C97}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1230,6 +1291,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1245,8 +1307,8 @@
         <c:axId val="2093968056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0E12"/>
-          <c:min val="-1.0E12"/>
+          <c:max val="1000000000000"/>
+          <c:min val="-1000000000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1263,8 +1325,8 @@
         <c:axId val="2093971096"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
-          <c:max val="100.0"/>
-          <c:min val="-100.0"/>
+          <c:max val="100"/>
+          <c:min val="-100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1283,6 +1345,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1296,7 +1359,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1305,7 +1367,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1315,20 +1377,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177799</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>726017</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1363,7 +1431,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1704,513 +1778,518 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2">
+        <v>936402000000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>21.24559661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2">
+        <v>433322000000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>22.70444359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>371649000000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>53.657420500000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>351303000000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>63.508048889999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>315588000000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>25.307321600000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2">
+        <v>166743000000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.8062723849999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2">
+        <v>152627000000</v>
+      </c>
+      <c r="C8" s="2">
+        <v>21.888855830000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2">
+        <v>106681000000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>48.273893659999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2">
+        <v>88977511784</v>
+      </c>
+      <c r="C10" s="2">
+        <v>38.363128699999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>74637796949</v>
+      </c>
+      <c r="C11" s="2">
+        <v>29.03724549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2">
+        <v>69798906396</v>
+      </c>
+      <c r="C12" s="2">
+        <v>15.460213420000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>67674930651</v>
+      </c>
+      <c r="C13" s="2">
+        <v>30.637995759999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>49283006785</v>
+      </c>
+      <c r="C14" s="2">
+        <v>31.42531159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2">
+        <v>24567816249</v>
+      </c>
+      <c r="C15" s="2">
+        <v>37.38810599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2">
+        <v>22199721660</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.1787177360000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>22087868277</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45.526562339999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>20713839102</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9.5022464969999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>20442561272</v>
+      </c>
+      <c r="C19" s="2">
+        <v>14.19910863</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2">
+        <v>12101115980</v>
+      </c>
+      <c r="C20" s="2">
+        <v>39.996018790000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2">
+        <v>8731447828</v>
+      </c>
+      <c r="C21" s="2">
+        <v>41.686838600000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>7844814543</v>
+      </c>
+      <c r="C22" s="2">
+        <v>55.293370240000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2">
+        <v>7041246272</v>
+      </c>
+      <c r="C23" s="2">
+        <v>20.062340630000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5548049892</v>
+      </c>
+      <c r="C24" s="2">
+        <v>34.594315360000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4548261837</v>
+      </c>
+      <c r="C25" s="2">
+        <v>17.978577699999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3343513488</v>
+      </c>
+      <c r="C26" s="2">
+        <v>7.1910817370000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2798511741</v>
+      </c>
+      <c r="C27" s="2">
+        <v>53.267111579999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2013182210</v>
+      </c>
+      <c r="C28" s="2">
+        <v>62.359166590000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1489457120</v>
+      </c>
+      <c r="C29" s="2">
+        <v>27.780981560000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1423298595</v>
+      </c>
+      <c r="C30" s="2">
+        <v>31.170234229999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1223789028</v>
+      </c>
+      <c r="C31" s="2">
+        <v>18.168407770000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1141014636</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8.8244882679999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2">
+        <v>899722356</v>
+      </c>
+      <c r="C33" s="2">
+        <v>32.069110590000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2">
+        <v>827859060</v>
+      </c>
+      <c r="C34" s="2">
+        <v>11.105933220000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2">
+        <v>801254700</v>
+      </c>
+      <c r="C35" s="2">
+        <v>10.359672140000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="2">
+        <v>336959039</v>
+      </c>
+      <c r="C36" s="2">
+        <v>21.10556248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>329519300</v>
+      </c>
+      <c r="C37" s="2">
+        <v>20.51840181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="2">
+        <v>285612015</v>
+      </c>
+      <c r="C38" s="2">
+        <v>37.749558980000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2">
+        <v>136170650</v>
+      </c>
+      <c r="C39" s="2">
+        <v>31.08578554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="2">
+        <v>104344828</v>
+      </c>
+      <c r="C40" s="2">
+        <v>37.958362950000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2">
+        <v>9764804</v>
+      </c>
+      <c r="C41" s="2">
+        <v>9.1677113420000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="2">
+        <v>5414462</v>
+      </c>
+      <c r="C42" s="2">
+        <v>68.941888759999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2">
+        <v>4183725</v>
+      </c>
+      <c r="C43" s="2">
+        <v>9.1938180670000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="2">
+        <v>3073158</v>
+      </c>
+      <c r="C44" s="2">
+        <v>20.634748819999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B2">
+      <c r="B45" s="2">
         <v>2530</v>
       </c>
-      <c r="C2">
+      <c r="C45" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3">
-        <v>22199721660</v>
-      </c>
-      <c r="C3">
-        <v>1.1787177360000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4">
-        <v>3343513488</v>
-      </c>
-      <c r="C4">
-        <v>7.1910817370000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1">
-        <v>166743000000</v>
-      </c>
-      <c r="C5">
-        <v>7.8062723849999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <v>1141014636</v>
-      </c>
-      <c r="C6">
-        <v>8.8244882679999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7">
-        <v>9764804</v>
-      </c>
-      <c r="C7">
-        <v>9.1677113420000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>4183725</v>
-      </c>
-      <c r="C8">
-        <v>9.1938180670000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>20713839102</v>
-      </c>
-      <c r="C9">
-        <v>9.5022464969999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10">
-        <v>801254700</v>
-      </c>
-      <c r="C10">
-        <v>10.359672140000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11">
-        <v>827859060</v>
-      </c>
-      <c r="C11">
-        <v>11.105933220000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>20442561272</v>
-      </c>
-      <c r="C12">
-        <v>14.19910863</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13">
-        <v>69798906396</v>
-      </c>
-      <c r="C13">
-        <v>15.460213420000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14">
-        <v>4548261837</v>
-      </c>
-      <c r="C14">
-        <v>17.978577699999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>1223789028</v>
-      </c>
-      <c r="C15">
-        <v>18.168407770000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>7041246272</v>
-      </c>
-      <c r="C16">
-        <v>20.062340630000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17">
-        <v>329519300</v>
-      </c>
-      <c r="C17">
-        <v>20.51840181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18">
-        <v>3073158</v>
-      </c>
-      <c r="C18">
-        <v>20.634748819999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>336959039</v>
-      </c>
-      <c r="C19">
-        <v>21.10556248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="1">
-        <v>936402000000</v>
-      </c>
-      <c r="C20">
-        <v>21.24559661</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1">
-        <v>152627000000</v>
-      </c>
-      <c r="C21">
-        <v>21.888855830000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="1">
-        <v>433322000000</v>
-      </c>
-      <c r="C22">
-        <v>22.70444359</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1">
-        <v>315588000000</v>
-      </c>
-      <c r="C23">
-        <v>25.307321600000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <v>1489457120</v>
-      </c>
-      <c r="C24">
-        <v>27.780981560000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25">
-        <v>74637796949</v>
-      </c>
-      <c r="C25">
-        <v>29.03724549</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>67674930651</v>
-      </c>
-      <c r="C26">
-        <v>30.637995759999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27">
-        <v>136170650</v>
-      </c>
-      <c r="C27">
-        <v>31.08578554</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28">
-        <v>1423298595</v>
-      </c>
-      <c r="C28">
-        <v>31.170234229999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>49283006785</v>
-      </c>
-      <c r="C29">
-        <v>31.42531159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>899722356</v>
-      </c>
-      <c r="C30">
-        <v>32.069110590000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>5548049892</v>
-      </c>
-      <c r="C31">
-        <v>34.594315360000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32">
-        <v>24567816249</v>
-      </c>
-      <c r="C32">
-        <v>37.38810599</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33">
-        <v>285612015</v>
-      </c>
-      <c r="C33">
-        <v>37.749558980000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34">
-        <v>104344828</v>
-      </c>
-      <c r="C34">
-        <v>37.958362950000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35">
-        <v>88977511784</v>
-      </c>
-      <c r="C35">
-        <v>38.363128699999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36">
-        <v>12101115980</v>
-      </c>
-      <c r="C36">
-        <v>39.996018790000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37">
-        <v>8731447828</v>
-      </c>
-      <c r="C37">
-        <v>41.686838600000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38">
-        <v>22087868277</v>
-      </c>
-      <c r="C38">
-        <v>45.526562339999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="1">
-        <v>106681000000</v>
-      </c>
-      <c r="C39">
-        <v>48.273893659999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40">
-        <v>2798511741</v>
-      </c>
-      <c r="C40">
-        <v>53.267111579999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="1">
-        <v>371649000000</v>
-      </c>
-      <c r="C41">
-        <v>53.657420500000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42">
-        <v>7844814543</v>
-      </c>
-      <c r="C42">
-        <v>55.293370240000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43">
-        <v>2013182210</v>
-      </c>
-      <c r="C43">
-        <v>62.359166590000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="1">
-        <v>351303000000</v>
-      </c>
-      <c r="C44">
-        <v>63.508048889999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45">
-        <v>5414462</v>
-      </c>
-      <c r="C45">
-        <v>68.941888759999998</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{5839BBD2-2510-47DE-9473-C3C7295B8349}">
+    <sortState ref="A2:C45">
+      <sortCondition descending="1" ref="B1"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:C46">
     <sortCondition ref="C2:C46"/>
   </sortState>
@@ -2226,21 +2305,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43.33203125" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2248,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2259,7 +2338,7 @@
         <v>1.1787177360000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2270,7 +2349,7 @@
         <v>7.8062723849999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -2281,7 +2360,7 @@
         <v>15.460213420000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -2292,7 +2371,7 @@
         <v>21.24559661</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2303,7 +2382,7 @@
         <v>21.888855830000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2314,7 +2393,7 @@
         <v>22.70444359</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2325,7 +2404,7 @@
         <v>25.307321600000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2336,7 +2415,7 @@
         <v>29.03724549</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2347,7 +2426,7 @@
         <v>30.637995759999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2358,7 +2437,7 @@
         <v>31.42531159</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2369,7 +2448,7 @@
         <v>37.38810599</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2380,7 +2459,7 @@
         <v>38.363128699999997</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2391,7 +2470,7 @@
         <v>48.273893659999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2402,7 +2481,7 @@
         <v>53.657420500000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
